--- a/testdata/TestData.xlsx
+++ b/testdata/TestData.xlsx
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.72972972972973" defaultRowHeight="14.55" outlineLevelRow="3" outlineLevelCol="1"/>
